--- a/expenses - app.xlsx
+++ b/expenses - app.xlsx
@@ -1,130 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_56BD65945020E945057C7BF10070C1CB5395E126" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E58DD686-A2DD-4BFB-8A64-F78F69F8EA73}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenses - App" sheetId="1" r:id="rId1"/>
+    <sheet name="Expenses - App" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Totals</t>
-  </si>
-  <si>
-    <t>WannaDos (consectutively subtracting as list develops)</t>
-  </si>
-  <si>
-    <t>06/25/2025</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>Starting Balance</t>
-  </si>
-  <si>
-    <t>Deposits</t>
-  </si>
-  <si>
-    <t>Tithing</t>
-  </si>
-  <si>
-    <t>5% Dep</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>EM Fund</t>
-  </si>
-  <si>
-    <t>5% D-E</t>
-  </si>
-  <si>
-    <t>Dep-Exp</t>
-  </si>
-  <si>
-    <t>Gifts</t>
-  </si>
-  <si>
-    <t>Spend</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,13 +55,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59996337778862885"/>
+        <fgColor theme="3" tint="0.5999633777886288"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,26 +76,33 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -209,14 +135,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -504,271 +490,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="1" customWidth="1"/>
-    <col min="6" max="9" width="8.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col width="11.08984375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.90625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17.36328125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.6328125" customWidth="1" style="12" min="4" max="4"/>
+    <col width="13.453125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.7265625" customWidth="1" style="1" min="6" max="9"/>
+    <col width="9.26953125" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="8.7265625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="8.7265625" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11">
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="inlineStr">
+        <is>
+          <t>WannaDos (consectutively subtracting as list develops)</t>
+        </is>
+      </c>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="8" t="n"/>
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+    </row>
+    <row r="2" customFormat="1" s="4">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>06/25/2025</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Starting Balance</t>
+        </is>
+      </c>
+      <c r="D2" s="13" t="n">
         <v>815.35</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>Deposits</t>
+        </is>
+      </c>
+      <c r="J2" s="14">
         <f>SUMIFS(D2:D1000,B2:B1000,"Deposit")</f>
-        <v>815.35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="7">
+        <v/>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>Tithing</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>5% Dep</t>
+        </is>
+      </c>
+      <c r="N2" s="15">
         <f>J2*0.05</f>
-        <v>40.767500000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="J3" s="16">
         <f>SUM(
   SUMIFS(D2:D1000, B2:B1000, "Food"),
   SUMIFS(D2:D1000, B2:B1000, "Entertainment"),
   SUMIFS(D2:D1000, B2:B1000, "Utilities"),
   SUMIFS(D2:D1000, B2:B1000, "Other")
 )</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3">
+        <v/>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>EM Fund</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>5% D-E</t>
+        </is>
+      </c>
+      <c r="N3" s="17">
         <f>(J4-N2)*0.05</f>
-        <v>38.729125000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="D4" s="10"/>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="1" s="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="D4" s="18" t="n"/>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>Dep-Exp</t>
+        </is>
+      </c>
+      <c r="J4" s="14">
         <f>J2-J3</f>
-        <v>815.35</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7">
+        <v/>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>5% D-E</t>
+        </is>
+      </c>
+      <c r="N4" s="15">
         <f>(J4-N2-N3)*0.05</f>
-        <v>36.792668750000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="D6" s="10"/>
-      <c r="L6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="7">
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="1" s="4">
+      <c r="A6" s="1" t="n"/>
+      <c r="D6" s="18" t="n"/>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Spend</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>5% D-E</t>
+        </is>
+      </c>
+      <c r="N6" s="15">
         <f>(J4-N2-N3-N4)*0.05</f>
-        <v>34.953035312500006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="14" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="16" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="1" s="4">
+      <c r="A8" s="1" t="n"/>
+      <c r="D8" s="18" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="4">
+      <c r="A10" s="1" t="n"/>
+      <c r="D10" s="18" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="4">
+      <c r="A12" s="1" t="n"/>
+      <c r="D12" s="18" t="n"/>
+    </row>
+    <row r="14" customFormat="1" s="4">
+      <c r="A14" s="1" t="n"/>
+      <c r="D14" s="18" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="4">
+      <c r="A16" s="1" t="n"/>
+      <c r="D16" s="18" t="n"/>
+    </row>
+    <row r="18" customFormat="1" s="4">
+      <c r="A18" s="1" t="n"/>
+      <c r="D18" s="18" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="4">
+      <c r="A20" s="1" t="n"/>
+      <c r="D20" s="18" t="n"/>
+    </row>
+    <row r="22" customFormat="1" s="4">
+      <c r="A22" s="1" t="n"/>
+      <c r="D22" s="18" t="n"/>
+    </row>
+    <row r="24" customFormat="1" s="4">
+      <c r="A24" s="1" t="n"/>
+      <c r="D24" s="18" t="n"/>
+    </row>
+    <row r="26" customFormat="1" s="4">
+      <c r="A26" s="1" t="n"/>
+      <c r="D26" s="18" t="n"/>
+    </row>
+    <row r="28" customFormat="1" s="4">
+      <c r="A28" s="1" t="n"/>
+      <c r="D28" s="18" t="n"/>
+    </row>
+    <row r="30" customFormat="1" s="4">
+      <c r="A30" s="1" t="n"/>
+      <c r="D30" s="18" t="n"/>
+    </row>
+    <row r="32" customFormat="1" s="4">
+      <c r="A32" s="1" t="n"/>
+      <c r="D32" s="18" t="n"/>
+    </row>
+    <row r="34" customFormat="1" s="4">
+      <c r="A34" s="1" t="n"/>
+      <c r="D34" s="18" t="n"/>
+    </row>
+    <row r="36" customFormat="1" s="4">
+      <c r="A36" s="1" t="n"/>
+      <c r="D36" s="18" t="n"/>
+    </row>
+    <row r="38" customFormat="1" s="4">
+      <c r="A38" s="1" t="n"/>
+      <c r="D38" s="18" t="n"/>
+    </row>
+    <row r="40" customFormat="1" s="4">
+      <c r="A40" s="1" t="n"/>
+      <c r="D40" s="18" t="n"/>
+    </row>
+    <row r="42" customFormat="1" s="4">
+      <c r="A42" s="1" t="n"/>
+      <c r="D42" s="18" t="n"/>
+    </row>
+    <row r="44" customFormat="1" s="4">
+      <c r="A44" s="1" t="n"/>
+      <c r="D44" s="18" t="n"/>
+    </row>
+    <row r="46" customFormat="1" s="4">
+      <c r="A46" s="1" t="n"/>
+      <c r="D46" s="18" t="n"/>
+    </row>
+    <row r="48" customFormat="1" s="4">
+      <c r="A48" s="1" t="n"/>
+      <c r="D48" s="18" t="n"/>
+    </row>
+    <row r="50" customFormat="1" s="4">
+      <c r="A50" s="1" t="n"/>
+      <c r="D50" s="18" t="n"/>
+    </row>
+    <row r="52" customFormat="1" s="4">
+      <c r="A52" s="1" t="n"/>
+      <c r="D52" s="18" t="n"/>
+    </row>
+    <row r="54" customFormat="1" s="4">
+      <c r="A54" s="1" t="n"/>
+      <c r="D54" s="18" t="n"/>
+    </row>
+    <row r="56" customFormat="1" s="4">
+      <c r="A56" s="1" t="n"/>
+      <c r="D56" s="18" t="n"/>
+    </row>
+    <row r="57"/>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>06/26/2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>It works</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>23</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A5 A7:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" priority="1" operator="between" dxfId="0">
       <formula>45992</formula>
       <formula>46022</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" priority="2" operator="between" dxfId="0">
       <formula>45931</formula>
       <formula>45961</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" priority="3" operator="between" dxfId="0">
       <formula>45870</formula>
       <formula>45900</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" priority="4" operator="between" dxfId="0">
       <formula>45809</formula>
       <formula>"06/31/2025"</formula>
     </cfRule>

--- a/expenses - app.xlsx
+++ b/expenses - app.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_56BD65945020E945057C7B0BD8878DFE7B77E13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE342750-77EE-44C9-BAA5-F929F1E475D6}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_56BD65945020E945057C7B0BD8878DFE7B77E13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABEE4C2D-8017-4C01-B862-FE03AF5C8D2F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenses - App" sheetId="1" r:id="rId1"/>
+    <sheet name="Expenses" sheetId="1" r:id="rId1"/>
     <sheet name="Totals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5">
-        <f>SUMIFS('Expenses - App'!D2:D1000,'Expenses - App'!B2:B1000,"Deposit")</f>
+        <f>SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000,"Deposit")</f>
         <v>815.35</v>
       </c>
       <c r="C2" s="4"/>
@@ -779,10 +779,10 @@
       </c>
       <c r="B3" s="2">
         <f>SUM(
-  SUMIFS('Expenses - App'!D2:D1000, 'Expenses - App'!B2:B1000, "Food"),
-  SUMIFS('Expenses - App'!D2:D1000, 'Expenses - App'!B2:B1000, "Entertainment"),
-  SUMIFS('Expenses - App'!D2:D1000, 'Expenses - App'!B2:B1000, "Utilities"),
-  SUMIFS('Expenses - App'!D2:D1000, 'Expenses - App'!B2:B1000, "Other")
+  SUMIFS(Expenses!D2:D1000, Expenses!B2:B1000, "Food"),
+  SUMIFS(Expenses!D2:D1000, Expenses!B2:B1000, "Entertainment"),
+  SUMIFS(Expenses!D2:D1000, Expenses!B2:B1000, "Utilities"),
+  SUMIFS(Expenses!D2:D1000, Expenses!B2:B1000, "Other")
 )</f>
         <v>23</v>
       </c>

--- a/expenses - app.xlsx
+++ b/expenses - app.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_56BD65945020E945057C7B0BD8878DFE7B77E13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABEE4C2D-8017-4C01-B862-FE03AF5C8D2F}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_56BD65945020E945057C7B0BD8878DFE7B77E13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0503C2-C342-4A0B-BAE6-53338EF3111C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenses" sheetId="1" r:id="rId1"/>
+    <sheet name="Expenses" sheetId="3" r:id="rId1"/>
     <sheet name="Totals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>WannaDos (consectutively subtracting as list develops)</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>Tithing</t>
+  </si>
+  <si>
+    <t>5% Dep</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>EM Fund</t>
+  </si>
+  <si>
+    <t>5% D-E</t>
+  </si>
+  <si>
+    <t>Dep-Exp</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>Spend</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>80% D-E</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -49,63 +88,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>Totals</t>
-  </si>
-  <si>
-    <t>WannaDos (consectutively subtracting as list develops)</t>
-  </si>
-  <si>
-    <t>06/25/2025</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>Starting Balance</t>
-  </si>
-  <si>
-    <t>Deposits</t>
-  </si>
-  <si>
-    <t>Tithing</t>
-  </si>
-  <si>
-    <t>5% Dep</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>EM Fund</t>
-  </si>
-  <si>
-    <t>5% D-E</t>
-  </si>
-  <si>
-    <t>Dep-Exp</t>
-  </si>
-  <si>
-    <t>Gifts</t>
-  </si>
-  <si>
-    <t>Spend</t>
-  </si>
-  <si>
-    <t>06/26/2025</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>It works</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>80% D-E</t>
   </si>
 </sst>
 </file>
@@ -131,18 +113,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -176,26 +152,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -525,203 +541,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15F640D-3E80-40C1-AE35-C06859AB5A79}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="1" customWidth="1"/>
-    <col min="6" max="9" width="8.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11">
-        <v>815.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58">
-        <v>23</v>
-      </c>
-      <c r="E58"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5 A7:A1048576">
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+      <formula>45809</formula>
+      <formula>"06/31/2025"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>45870</formula>
+      <formula>45900</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+      <formula>45931</formula>
+      <formula>45961</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>45992</formula>
       <formula>46022</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
-      <formula>45931</formula>
-      <formula>45961</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
-      <formula>45870</formula>
-      <formula>45900</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
-      <formula>45809</formula>
-      <formula>"06/31/2025"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -737,12 +607,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -752,22 +622,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5">
-        <f>SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000,"Deposit")</f>
-        <v>815.35</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Deposit")</f>
+        <v>#REF!</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="e">
         <f>B2*0.05</f>
-        <v>40.767500000000005</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -775,27 +645,27 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="e">
         <f>SUM(
-  SUMIFS(Expenses!D2:D1000, Expenses!B2:B1000, "Food"),
-  SUMIFS(Expenses!D2:D1000, Expenses!B2:B1000, "Entertainment"),
-  SUMIFS(Expenses!D2:D1000, Expenses!B2:B1000, "Utilities"),
-  SUMIFS(Expenses!D2:D1000, Expenses!B2:B1000, "Other")
+  SUMIFS(#REF!,#REF!, "Food"),
+  SUMIFS(#REF!,#REF!, "Entertainment"),
+  SUMIFS(#REF!,#REF!, "Utilities"),
+  SUMIFS(#REF!,#REF!, "Other")
 )</f>
-        <v>23</v>
+        <v>#REF!</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="e">
         <f>(B4-F2)*0.05</f>
-        <v>37.579124999999998</v>
+        <v>#REF!</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -803,22 +673,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="e">
         <f>B2-B3</f>
-        <v>792.35</v>
+        <v>#REF!</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="12">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="e">
         <f>(F2/0.05)*0.8</f>
-        <v>652.28000000000009</v>
+        <v>#REF!</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -829,14 +699,14 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="e">
         <f>(B4-F2-F3)*0.05</f>
-        <v>35.700168750000003</v>
+        <v>#REF!</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -847,14 +717,14 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="e">
         <f>(B4-F2-F3-F5)*0.05</f>
-        <v>33.915160312499999</v>
+        <v>#REF!</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>

--- a/expenses - app.xlsx
+++ b/expenses - app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_56BD65945020E945057C7B0BD8878DFE7B77E13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0503C2-C342-4A0B-BAE6-53338EF3111C}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_56BD65945020E945057C7B0BD8878DFE7B77E13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD200514-FCCD-4F1B-83AF-D5ECB8C6B42F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,49 +169,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -251,10 +209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,21 +528,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
-      <formula>45809</formula>
-      <formula>"06/31/2025"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>45992</formula>
+      <formula>46022</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>45931</formula>
+      <formula>45961</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>45870</formula>
       <formula>45900</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
-      <formula>45931</formula>
-      <formula>45961</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
-      <formula>45992</formula>
-      <formula>46022</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>45809</formula>
+      <formula>"06/31/2025"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -600,7 +554,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,9 +578,9 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="e">
-        <f>SUMIFS(#REF!,#REF!,"Deposit")</f>
-        <v>#REF!</v>
+      <c r="B2" s="5">
+        <f>SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000,"Deposit")</f>
+        <v>0</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -635,9 +589,9 @@
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="e">
+      <c r="F2" s="7">
         <f>B2*0.05</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -647,14 +601,14 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="e">
+      <c r="B3" s="2">
         <f>SUM(
-  SUMIFS(#REF!,#REF!, "Food"),
-  SUMIFS(#REF!,#REF!, "Entertainment"),
-  SUMIFS(#REF!,#REF!, "Utilities"),
-  SUMIFS(#REF!,#REF!, "Other")
+  SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000, "Food"),
+  SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000, "Entertainment"),
+  SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000, "Utilities"),
+  SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000, "Other")
 )</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -663,9 +617,9 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="e">
+      <c r="F3" s="3">
         <f>(B4-F2)*0.05</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -675,9 +629,9 @@
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="e">
+      <c r="B4" s="5">
         <f>B2-B3</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
@@ -686,9 +640,9 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="e">
+      <c r="F4" s="9">
         <f>(F2/0.05)*0.8</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -704,9 +658,9 @@
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="e">
+      <c r="F5" s="7">
         <f>(B4-F2-F3)*0.05</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -722,9 +676,9 @@
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="e">
+      <c r="F6" s="7">
         <f>(B4-F2-F3-F5)*0.05</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>

--- a/expenses - app.xlsx
+++ b/expenses - app.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_56BD65945020E945057C7B0BD8878DFE7B77E13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD200514-FCCD-4F1B-83AF-D5ECB8C6B42F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_9B21A188BBAB7FAC581952F42363CA12B162B224" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA52CD8A-99B3-42DD-A13F-85BCF06F8E68}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenses" sheetId="3" r:id="rId1"/>
+    <sheet name="Expenses" sheetId="1" r:id="rId1"/>
     <sheet name="Totals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,6 +36,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>Totals</t>
   </si>
   <si>
@@ -63,31 +78,16 @@
     <t>Dep-Exp</t>
   </si>
   <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>80% D-E</t>
+  </si>
+  <si>
     <t>Gifts</t>
   </si>
   <si>
     <t>Spend</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>80% D-E</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -162,8 +162,8 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -495,36 +495,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15F640D-3E80-40C1-AE35-C06859AB5A79}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" style="9" customWidth="1"/>
     <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
@@ -550,23 +558,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D8119D-45A9-4F65-8360-DE7119F4E780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -576,18 +588,18 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9">
         <f>SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000,"Deposit")</f>
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7">
         <f>B2*0.05</f>
@@ -599,7 +611,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <f>SUM(
@@ -612,10 +624,10 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
         <f>(B4-F2)*0.05</f>
@@ -627,7 +639,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <f>B2-B3</f>
@@ -635,10 +647,10 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="9">
         <f>(F2/0.05)*0.8</f>
@@ -653,10 +665,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7">
         <f>(B4-F2-F3)*0.05</f>
@@ -671,10 +683,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7">
         <f>(B4-F2-F3-F5)*0.05</f>

--- a/expenses - app.xlsx
+++ b/expenses - app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_9B21A188BBAB7FAC581952F42363CA12B162B224" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA52CD8A-99B3-42DD-A13F-85BCF06F8E68}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_87BDC391BB4B7645EFBBC53621FCEA9398288286" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6521A40-CB5B-4C1D-BBC3-4D3443C90B1C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>06/26/2025</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Starting Balance</t>
   </si>
   <si>
     <t>Totals</t>
@@ -152,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -163,7 +172,6 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -496,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,12 +535,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D4"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>815.75</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
@@ -561,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,12 +588,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -588,22 +603,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9">
-        <f>SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000,"Deposit")</f>
-        <v>0</v>
+        <f>SUMIFS(Expenses!D2:D996,Expenses!B2:B996,"Deposit")</f>
+        <v>815.75</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7">
         <f>B2*0.05</f>
-        <v>0</v>
+        <v>40.787500000000001</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -611,27 +626,27 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <f>SUM(
-  SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000, "Food"),
-  SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000, "Entertainment"),
-  SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000, "Utilities"),
-  SUMIFS(Expenses!D2:D1000,Expenses!B2:B1000, "Other")
+  SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Food"),
+  SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Entertainment"),
+  SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Utilities"),
+  SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Other")
 )</f>
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <f>(B4-F2)*0.05</f>
-        <v>0</v>
+        <v>38.748125000000002</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -639,22 +654,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5">
         <f>B2-B3</f>
-        <v>0</v>
+        <v>815.75</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="9">
         <f>(F2/0.05)*0.8</f>
-        <v>0</v>
+        <v>652.6</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -665,14 +680,14 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7">
         <f>(B4-F2-F3)*0.05</f>
-        <v>0</v>
+        <v>36.810718749999999</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -683,14 +698,14 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7">
         <f>(B4-F2-F3-F5)*0.05</f>
-        <v>0</v>
+        <v>34.970182812500006</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>

--- a/expenses - app.xlsx
+++ b/expenses - app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_87BDC391BB4B7645EFBBC53621FCEA9398288286" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6521A40-CB5B-4C1D-BBC3-4D3443C90B1C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C43D98673E4F0FA4458EE8F72743CA97BA9CD2F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7294A244-37E9-4CFA-9B95-A74457E6F69F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2710" yWindow="3110" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Starting Balance</t>
+  </si>
+  <si>
+    <t>06/28/2025</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Dunkin</t>
   </si>
   <si>
     <t>Totals</t>
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,6 +557,23 @@
       <c r="D2">
         <v>815.75</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
@@ -588,12 +614,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -603,7 +629,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9">
         <f>SUMIFS(Expenses!D2:D996,Expenses!B2:B996,"Deposit")</f>
@@ -611,10 +637,10 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7">
         <f>B2*0.05</f>
@@ -626,7 +652,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <f>SUM(
@@ -635,18 +661,18 @@
   SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Utilities"),
   SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Other")
 )</f>
-        <v>0</v>
+        <v>11.64</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3">
         <f>(B4-F2)*0.05</f>
-        <v>38.748125000000002</v>
+        <v>38.166125000000001</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -654,18 +680,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5">
         <f>B2-B3</f>
-        <v>815.75</v>
+        <v>804.11</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="9">
         <f>(F2/0.05)*0.8</f>
@@ -680,14 +706,14 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7">
         <f>(B4-F2-F3)*0.05</f>
-        <v>36.810718749999999</v>
+        <v>36.257818750000006</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -698,14 +724,14 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7">
         <f>(B4-F2-F3-F5)*0.05</f>
-        <v>34.970182812500006</v>
+        <v>34.444927812500005</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
